--- a/random_excels/competition_07.xlsx
+++ b/random_excels/competition_07.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff42fe3cf594573e/Desktop/projekt/random_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25D25DB-95B0-4A8A-894F-5CFBFDB87566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C25D25DB-95B0-4A8A-894F-5CFBFDB87566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B98D90B3-8EFE-4578-A039-798687313E05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{ED121322-3A15-4387-9449-F1360DAB0311}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{ED121322-3A15-4387-9449-F1360DAB0311}"/>
   </bookViews>
   <sheets>
     <sheet name="logFile" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">logFile!$A$1:$T$101</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>countGenderMixHard</t>
   </si>
@@ -110,306 +109,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>20709952.000000</t>
-  </si>
-  <si>
-    <t>20078757.000000</t>
-  </si>
-  <si>
-    <t>19405417.000000</t>
-  </si>
-  <si>
-    <t>18281802.000000</t>
-  </si>
-  <si>
-    <t>19856967.000000</t>
-  </si>
-  <si>
-    <t>19497292.000000</t>
-  </si>
-  <si>
-    <t>19227542.000000</t>
-  </si>
-  <si>
-    <t>21428552.000000</t>
-  </si>
-  <si>
-    <t>18867592.000000</t>
-  </si>
-  <si>
-    <t>18417967.000000</t>
-  </si>
-  <si>
-    <t>21565522.000000</t>
-  </si>
-  <si>
-    <t>19721392.000000</t>
-  </si>
-  <si>
-    <t>17830822.000000</t>
-  </si>
-  <si>
-    <t>20440437.000000</t>
-  </si>
-  <si>
-    <t>18369897.000000</t>
-  </si>
-  <si>
-    <t>20575772.000000</t>
-  </si>
-  <si>
-    <t>18731977.000000</t>
-  </si>
-  <si>
-    <t>20126647.000000</t>
-  </si>
-  <si>
-    <t>19181497.000000</t>
-  </si>
-  <si>
-    <t>19315617.000000</t>
-  </si>
-  <si>
-    <t>18955387.000000</t>
-  </si>
-  <si>
-    <t>18910672.000000</t>
-  </si>
-  <si>
-    <t>18325422.000000</t>
-  </si>
-  <si>
-    <t>18777302.000000</t>
-  </si>
-  <si>
-    <t>19900687.000000</t>
-  </si>
-  <si>
-    <t>19449662.000000</t>
-  </si>
-  <si>
-    <t>19629357.000000</t>
-  </si>
-  <si>
-    <t>18596627.000000</t>
-  </si>
-  <si>
-    <t>20080512.000000</t>
-  </si>
-  <si>
-    <t>18684927.000000</t>
-  </si>
-  <si>
-    <t>19630332.000000</t>
-  </si>
-  <si>
-    <t>19585717.000000</t>
-  </si>
-  <si>
-    <t>18822362.000000</t>
-  </si>
-  <si>
-    <t>19316002.000000</t>
-  </si>
-  <si>
-    <t>20529767.000000</t>
-  </si>
-  <si>
-    <t>19404682.000000</t>
-  </si>
-  <si>
-    <t>21249537.000000</t>
-  </si>
-  <si>
-    <t>19630807.000000</t>
-  </si>
-  <si>
-    <t>19989842.000000</t>
-  </si>
-  <si>
-    <t>20080367.000000</t>
-  </si>
-  <si>
-    <t>19404732.000000</t>
-  </si>
-  <si>
-    <t>18730452.000000</t>
-  </si>
-  <si>
-    <t>20756362.000000</t>
-  </si>
-  <si>
-    <t>20305967.000000</t>
-  </si>
-  <si>
-    <t>19674747.000000</t>
-  </si>
-  <si>
-    <t>18551362.000000</t>
-  </si>
-  <si>
-    <t>20126362.000000</t>
-  </si>
-  <si>
-    <t>19540377.000000</t>
-  </si>
-  <si>
-    <t>21924832.000000</t>
-  </si>
-  <si>
-    <t>20440452.000000</t>
-  </si>
-  <si>
-    <t>21072022.000000</t>
-  </si>
-  <si>
-    <t>19990637.000000</t>
-  </si>
-  <si>
-    <t>19721092.000000</t>
-  </si>
-  <si>
-    <t>19541162.000000</t>
-  </si>
-  <si>
-    <t>19721892.000000</t>
-  </si>
-  <si>
-    <t>19316127.000000</t>
-  </si>
-  <si>
-    <t>19988887.000000</t>
-  </si>
-  <si>
-    <t>19990272.000000</t>
-  </si>
-  <si>
-    <t>22150097.000000</t>
-  </si>
-  <si>
-    <t>18280327.000000</t>
-  </si>
-  <si>
-    <t>19899767.000000</t>
-  </si>
-  <si>
-    <t>20080137.000000</t>
-  </si>
-  <si>
-    <t>18730462.000000</t>
-  </si>
-  <si>
-    <t>20171457.000000</t>
-  </si>
-  <si>
-    <t>20215237.000000</t>
-  </si>
-  <si>
-    <t>20214612.000000</t>
-  </si>
-  <si>
-    <t>21115837.000000</t>
-  </si>
-  <si>
-    <t>20754537.000000</t>
-  </si>
-  <si>
-    <t>19676552.000000</t>
-  </si>
-  <si>
-    <t>20394967.000000</t>
-  </si>
-  <si>
-    <t>20935682.000000</t>
-  </si>
-  <si>
-    <t>20574867.000000</t>
-  </si>
-  <si>
-    <t>19585222.000000</t>
-  </si>
-  <si>
-    <t>19990842.000000</t>
-  </si>
-  <si>
-    <t>21564807.000000</t>
-  </si>
-  <si>
-    <t>18865447.000000</t>
-  </si>
-  <si>
-    <t>19674262.000000</t>
-  </si>
-  <si>
-    <t>21654822.000000</t>
-  </si>
-  <si>
-    <t>19316157.000000</t>
-  </si>
-  <si>
-    <t>20080077.000000</t>
-  </si>
-  <si>
-    <t>21339577.000000</t>
-  </si>
-  <si>
-    <t>19584052.000000</t>
-  </si>
-  <si>
-    <t>19991067.000000</t>
-  </si>
-  <si>
-    <t>17471047.000000</t>
-  </si>
-  <si>
-    <t>19496287.000000</t>
-  </si>
-  <si>
-    <t>19944857.000000</t>
-  </si>
-  <si>
-    <t>19631662.000000</t>
-  </si>
-  <si>
-    <t>18415552.000000</t>
-  </si>
-  <si>
-    <t>21519752.000000</t>
-  </si>
-  <si>
-    <t>20395397.000000</t>
-  </si>
-  <si>
-    <t>21070267.000000</t>
-  </si>
-  <si>
-    <t>21295037.000000</t>
-  </si>
-  <si>
-    <t>19629202.000000</t>
-  </si>
-  <si>
-    <t>21204337.000000</t>
-  </si>
-  <si>
-    <t>19990127.000000</t>
-  </si>
-  <si>
-    <t>21114532.000000</t>
-  </si>
-  <si>
-    <t>20890232.000000</t>
-  </si>
-  <si>
-    <t>21564537.000000</t>
-  </si>
-  <si>
-    <t>19630927.000000</t>
-  </si>
-  <si>
-    <t>19451402.000000</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -456,9 +155,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -855,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F37CB5A-7AD9-48B0-9C9F-99E3A2EE0511}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +583,7 @@
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>55</v>
       </c>
@@ -1005,11 +703,11 @@
       <c r="S2">
         <v>969</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>20709952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1067,11 +765,11 @@
       <c r="S3">
         <v>1058</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>20078757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38</v>
       </c>
@@ -1129,11 +827,18 @@
       <c r="S4">
         <v>1019</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>19405417</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <f>MAX(T2:T101)</f>
+        <v>22150097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>55</v>
       </c>
@@ -1191,11 +896,18 @@
       <c r="S5">
         <v>1186</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>18281802</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f>MIN(T2:T101)</f>
+        <v>17471047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>51</v>
       </c>
@@ -1253,11 +965,18 @@
       <c r="S6">
         <v>1219</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>19856967</v>
+      </c>
+      <c r="V6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6">
+        <f>AVERAGEA(T1:T101)</f>
+        <v>19678565.841584157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>52</v>
       </c>
@@ -1315,11 +1034,18 @@
       <c r="S7">
         <v>1223</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>19497292</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <f>STDEVA(T2:T101)</f>
+        <v>959886.68820948224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44</v>
       </c>
@@ -1377,11 +1103,11 @@
       <c r="S8">
         <v>950</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>19227542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>54</v>
       </c>
@@ -1439,11 +1165,11 @@
       <c r="S9">
         <v>909</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>21428552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -1501,11 +1227,11 @@
       <c r="S10">
         <v>1174</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>18867592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>44</v>
       </c>
@@ -1563,11 +1289,11 @@
       <c r="S11">
         <v>1109</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>18417967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>57</v>
       </c>
@@ -1625,11 +1351,11 @@
       <c r="S12">
         <v>1080</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>21565522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -1687,11 +1413,11 @@
       <c r="S13">
         <v>1052</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>19721392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>45</v>
       </c>
@@ -1749,11 +1475,11 @@
       <c r="S14">
         <v>1164</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>17830822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>53</v>
       </c>
@@ -1811,11 +1537,11 @@
       <c r="S15">
         <v>1250</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>20440437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1873,8 +1599,8 @@
       <c r="S16">
         <v>1122</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>34</v>
+      <c r="T16">
+        <v>18369897</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1935,8 +1661,8 @@
       <c r="S17">
         <v>1023</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>35</v>
+      <c r="T17">
+        <v>20575772</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1997,8 +1723,8 @@
       <c r="S18">
         <v>1194</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>36</v>
+      <c r="T18">
+        <v>18731977</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -2059,8 +1785,8 @@
       <c r="S19">
         <v>1066</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>37</v>
+      <c r="T19">
+        <v>20126647</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -2121,8 +1847,8 @@
       <c r="S20">
         <v>1051</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>38</v>
+      <c r="T20">
+        <v>19181497</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2183,8 +1909,8 @@
       <c r="S21">
         <v>1208</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>39</v>
+      <c r="T21">
+        <v>19315617</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -2245,8 +1971,8 @@
       <c r="S22">
         <v>1143</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>40</v>
+      <c r="T22">
+        <v>18955387</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2307,8 +2033,8 @@
       <c r="S23">
         <v>1061</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>41</v>
+      <c r="T23">
+        <v>18910672</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2369,8 +2095,8 @@
       <c r="S24">
         <v>1150</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>42</v>
+      <c r="T24">
+        <v>18325422</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2431,8 +2157,8 @@
       <c r="S25">
         <v>1136</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
+      <c r="T25">
+        <v>18777302</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2493,8 +2219,8 @@
       <c r="S26">
         <v>1015</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
+      <c r="T26">
+        <v>19900687</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2555,8 +2281,8 @@
       <c r="S27">
         <v>1125</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>45</v>
+      <c r="T27">
+        <v>19449662</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2617,8 +2343,8 @@
       <c r="S28">
         <v>1086</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>46</v>
+      <c r="T28">
+        <v>19629357</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2679,8 +2405,8 @@
       <c r="S29">
         <v>1159</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>47</v>
+      <c r="T29">
+        <v>18596627</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2741,8 +2467,8 @@
       <c r="S30">
         <v>968</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>48</v>
+      <c r="T30">
+        <v>20080512</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2803,8 +2529,8 @@
       <c r="S31">
         <v>1222</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>49</v>
+      <c r="T31">
+        <v>18684927</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2865,8 +2591,8 @@
       <c r="S32">
         <v>1030</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>50</v>
+      <c r="T32">
+        <v>19630332</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2927,8 +2653,8 @@
       <c r="S33">
         <v>1072</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
+      <c r="T33">
+        <v>19585717</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -2989,8 +2715,8 @@
       <c r="S34">
         <v>1170</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>52</v>
+      <c r="T34">
+        <v>18822362</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3051,8 +2777,8 @@
       <c r="S35">
         <v>1100</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>53</v>
+      <c r="T35">
+        <v>19316002</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -3113,8 +2839,8 @@
       <c r="S36">
         <v>1088</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>54</v>
+      <c r="T36">
+        <v>20529767</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -3175,8 +2901,8 @@
       <c r="S37">
         <v>1038</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>55</v>
+      <c r="T37">
+        <v>19404682</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3237,8 +2963,8 @@
       <c r="S38">
         <v>1108</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>56</v>
+      <c r="T38">
+        <v>21249537</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3299,8 +3025,8 @@
       <c r="S39">
         <v>1033</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>57</v>
+      <c r="T39">
+        <v>19630807</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3361,8 +3087,8 @@
       <c r="S40">
         <v>1165</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>58</v>
+      <c r="T40">
+        <v>19989842</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3423,8 +3149,8 @@
       <c r="S41">
         <v>1083</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>59</v>
+      <c r="T41">
+        <v>20080367</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3485,8 +3211,8 @@
       <c r="S42">
         <v>1015</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>60</v>
+      <c r="T42">
+        <v>19404732</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3547,8 +3273,8 @@
       <c r="S43">
         <v>1154</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>61</v>
+      <c r="T43">
+        <v>18730452</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3609,8 +3335,8 @@
       <c r="S44">
         <v>1031</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>62</v>
+      <c r="T44">
+        <v>20756362</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3671,8 +3397,8 @@
       <c r="S45">
         <v>1164</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>63</v>
+      <c r="T45">
+        <v>20305967</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3733,8 +3459,8 @@
       <c r="S46">
         <v>1057</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>64</v>
+      <c r="T46">
+        <v>19674747</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3795,8 +3521,8 @@
       <c r="S47">
         <v>1043</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>65</v>
+      <c r="T47">
+        <v>18551362</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -3857,8 +3583,8 @@
       <c r="S48">
         <v>1206</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>66</v>
+      <c r="T48">
+        <v>20126362</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -3919,8 +3645,8 @@
       <c r="S49">
         <v>1020</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>67</v>
+      <c r="T49">
+        <v>19540377</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -3981,8 +3707,8 @@
       <c r="S50">
         <v>973</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>68</v>
+      <c r="T50">
+        <v>21924832</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4043,8 +3769,8 @@
       <c r="S51">
         <v>1039</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>69</v>
+      <c r="T51">
+        <v>20440452</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -4105,8 +3831,8 @@
       <c r="S52">
         <v>1035</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>70</v>
+      <c r="T52">
+        <v>21072022</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4167,8 +3893,8 @@
       <c r="S53">
         <v>1094</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>71</v>
+      <c r="T53">
+        <v>19990637</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -4229,8 +3955,8 @@
       <c r="S54">
         <v>1146</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>72</v>
+      <c r="T54">
+        <v>19721092</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -4291,8 +4017,8 @@
       <c r="S55">
         <v>1086</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>73</v>
+      <c r="T55">
+        <v>19541162</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -4353,8 +4079,8 @@
       <c r="S56">
         <v>1114</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>74</v>
+      <c r="T56">
+        <v>19721892</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -4415,8 +4141,8 @@
       <c r="S57">
         <v>1201</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>75</v>
+      <c r="T57">
+        <v>19316127</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -4477,8 +4203,8 @@
       <c r="S58">
         <v>1066</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>76</v>
+      <c r="T58">
+        <v>19988887</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -4539,8 +4265,8 @@
       <c r="S59">
         <v>1076</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>77</v>
+      <c r="T59">
+        <v>19990272</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -4601,8 +4327,8 @@
       <c r="S60">
         <v>1007</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>78</v>
+      <c r="T60">
+        <v>22150097</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4663,8 +4389,8 @@
       <c r="S61">
         <v>1168</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>79</v>
+      <c r="T61">
+        <v>18280327</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -4725,8 +4451,8 @@
       <c r="S62">
         <v>1006</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>80</v>
+      <c r="T62">
+        <v>19899767</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -4787,8 +4513,8 @@
       <c r="S63">
         <v>1095</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>81</v>
+      <c r="T63">
+        <v>20080137</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -4849,8 +4575,8 @@
       <c r="S64">
         <v>1096</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>82</v>
+      <c r="T64">
+        <v>18730462</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -4911,8 +4637,8 @@
       <c r="S65">
         <v>1118</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>83</v>
+      <c r="T65">
+        <v>20171457</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -4973,8 +4699,8 @@
       <c r="S66">
         <v>1144</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>84</v>
+      <c r="T66">
+        <v>20215237</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -5035,8 +4761,8 @@
       <c r="S67">
         <v>1135</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>85</v>
+      <c r="T67">
+        <v>20214612</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -5097,8 +4823,8 @@
       <c r="S68">
         <v>1071</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>86</v>
+      <c r="T68">
+        <v>21115837</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -5159,8 +4885,8 @@
       <c r="S69">
         <v>966</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>87</v>
+      <c r="T69">
+        <v>20754537</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -5221,8 +4947,8 @@
       <c r="S70">
         <v>1062</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>88</v>
+      <c r="T70">
+        <v>19676552</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -5283,8 +5009,8 @@
       <c r="S71">
         <v>1097</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>89</v>
+      <c r="T71">
+        <v>20394967</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -5345,8 +5071,8 @@
       <c r="S72">
         <v>1013</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>90</v>
+      <c r="T72">
+        <v>20935682</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -5407,8 +5133,8 @@
       <c r="S73">
         <v>1038</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>91</v>
+      <c r="T73">
+        <v>20574867</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -5469,8 +5195,8 @@
       <c r="S74">
         <v>1188</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>92</v>
+      <c r="T74">
+        <v>19585222</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -5531,8 +5257,8 @@
       <c r="S75">
         <v>1034</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>93</v>
+      <c r="T75">
+        <v>19990842</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -5593,8 +5319,8 @@
       <c r="S76">
         <v>1014</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>94</v>
+      <c r="T76">
+        <v>21564807</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5655,8 +5381,8 @@
       <c r="S77">
         <v>1046</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>95</v>
+      <c r="T77">
+        <v>18865447</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -5717,8 +5443,8 @@
       <c r="S78">
         <v>1135</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>96</v>
+      <c r="T78">
+        <v>19674262</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5779,8 +5505,8 @@
       <c r="S79">
         <v>1076</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>97</v>
+      <c r="T79">
+        <v>21654822</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -5841,8 +5567,8 @@
       <c r="S80">
         <v>1160</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>98</v>
+      <c r="T80">
+        <v>19316157</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -5903,8 +5629,8 @@
       <c r="S81">
         <v>1031</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>99</v>
+      <c r="T81">
+        <v>20080077</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -5965,8 +5691,8 @@
       <c r="S82">
         <v>1135</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>100</v>
+      <c r="T82">
+        <v>21339577</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -6027,8 +5753,8 @@
       <c r="S83">
         <v>1097</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>101</v>
+      <c r="T83">
+        <v>19584052</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -6089,8 +5815,8 @@
       <c r="S84">
         <v>1180</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>102</v>
+      <c r="T84">
+        <v>19991067</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -6151,8 +5877,8 @@
       <c r="S85">
         <v>1255</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>103</v>
+      <c r="T85">
+        <v>17471047</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -6213,8 +5939,8 @@
       <c r="S86">
         <v>1007</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>104</v>
+      <c r="T86">
+        <v>19496287</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -6275,8 +6001,8 @@
       <c r="S87">
         <v>1220</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>105</v>
+      <c r="T87">
+        <v>19944857</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -6337,8 +6063,8 @@
       <c r="S88">
         <v>1067</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>106</v>
+      <c r="T88">
+        <v>19631662</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -6399,8 +6125,8 @@
       <c r="S89">
         <v>1121</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>107</v>
+      <c r="T89">
+        <v>18415552</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -6461,8 +6187,8 @@
       <c r="S90">
         <v>1176</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>108</v>
+      <c r="T90">
+        <v>21519752</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -6523,8 +6249,8 @@
       <c r="S91">
         <v>1078</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>109</v>
+      <c r="T91">
+        <v>20395397</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -6585,8 +6311,8 @@
       <c r="S92">
         <v>1070</v>
       </c>
-      <c r="T92" s="1" t="s">
-        <v>110</v>
+      <c r="T92">
+        <v>21070267</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -6647,8 +6373,8 @@
       <c r="S93">
         <v>1031</v>
       </c>
-      <c r="T93" s="1" t="s">
-        <v>111</v>
+      <c r="T93">
+        <v>21295037</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -6709,8 +6435,8 @@
       <c r="S94">
         <v>1102</v>
       </c>
-      <c r="T94" s="1" t="s">
-        <v>112</v>
+      <c r="T94">
+        <v>19629202</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -6771,8 +6497,8 @@
       <c r="S95">
         <v>1007</v>
       </c>
-      <c r="T95" s="1" t="s">
-        <v>113</v>
+      <c r="T95">
+        <v>21204337</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -6833,8 +6559,8 @@
       <c r="S96">
         <v>1040</v>
       </c>
-      <c r="T96" s="1" t="s">
-        <v>114</v>
+      <c r="T96">
+        <v>19990127</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -6895,8 +6621,8 @@
       <c r="S97">
         <v>962</v>
       </c>
-      <c r="T97" s="1" t="s">
-        <v>115</v>
+      <c r="T97">
+        <v>21114532</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -6957,8 +6683,8 @@
       <c r="S98">
         <v>1145</v>
       </c>
-      <c r="T98" s="1" t="s">
-        <v>116</v>
+      <c r="T98">
+        <v>20890232</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -7019,8 +6745,8 @@
       <c r="S99">
         <v>1099</v>
       </c>
-      <c r="T99" s="1" t="s">
-        <v>117</v>
+      <c r="T99">
+        <v>21564537</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -7081,8 +6807,8 @@
       <c r="S100">
         <v>990</v>
       </c>
-      <c r="T100" s="1" t="s">
-        <v>118</v>
+      <c r="T100">
+        <v>19630927</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -7143,8 +6869,8 @@
       <c r="S101">
         <v>1037</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>119</v>
+      <c r="T101">
+        <v>19451402</v>
       </c>
     </row>
   </sheetData>
@@ -7152,557 +6878,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532EAD11-A495-4A6D-B691-A3FE90B10447}">
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>20709952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>20078757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>19405417</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <f>MAX(A2:A101)</f>
-        <v>22150097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>18281802</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <f>MIN(A2:A101)</f>
-        <v>17471047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>19856967</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGEA(A1:A101)</f>
-        <v>19678565.841584157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>19497292</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7">
-        <f>STDEVA(A2:A101)</f>
-        <v>959886.68820948224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>19227542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>21428552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>18867592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>18417967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>21565522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>19721392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>17830822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>20440437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>18369897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>20575772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>18731977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>20126647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19181497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19315617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>18955387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>18910672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>18325422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>18777302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>19900687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>19449662</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>19629357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>18596627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>20080512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>18684927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>19630332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>19585717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>18822362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>19316002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>20529767</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>19404682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>21249537</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>19630807</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>19989842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>20080367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>19404732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>18730452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>20756362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>20305967</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>19674747</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>18551362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>20126362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>19540377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>21924832</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>20440452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>21072022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>19990637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>19721092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>19541162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>19721892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>19316127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>19988887</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>19990272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>22150097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>18280327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>19899767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>20080137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>18730462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>20171457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>20215237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>20214612</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>21115837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>20754537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>19676552</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>20394967</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>20935682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>20574867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>19585222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>19990842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>21564807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>18865447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>19674262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>21654822</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>19316157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>20080077</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>21339577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>19584052</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>19991067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>17471047</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>19496287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>19944857</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>19631662</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>18415552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>21519752</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>20395397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>21070267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>21295037</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>19629202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>21204337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>19990127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>21114532</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>20890232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>21564537</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>19630927</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>19451402</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
